--- a/dbRecipes.xlsx
+++ b/dbRecipes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\73630\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaehyun/Documents/IdeaProjects/ReciPT/ReciPT-backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8849EAD0-8879-4BC1-BF1A-8736590C2935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B10978-67F1-0740-9171-6410CE0C3DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{A58DF443-3166-4BCF-B080-0D954A2D7279}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19500" xr2:uid="{A58DF443-3166-4BCF-B080-0D954A2D7279}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_5.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>두부 320g(1모), 쌀뜨물 300g(1½컵), 돼지고기 100g, 김치 140g, 된장 20g(1½큰술), 청양고추 10g(1/2개), 홍고추 5g(1/4개), 대파 10g(2cm), 고춧가루 5g(1작은술)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00137_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00137_3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다시마 1g, 두부 10g, 떡국 떡 10g, 스팸(마일드) 10g, 다진 마늘 5g, 무 20g, 김치 15g, 소시지 10g(1/2개), 우민찌 5g(1작은술), 양파 5g, 저염된장 15g(1큰술), 베이컨 5g, 대파 5g, 청양고추 5g, 홍고추 1g</t>
   </si>
   <si>
@@ -360,10 +352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_4.png,http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삼치(140g), 치커리(35g), 전분가루(10g), 된장(5g), 청주(5g), 유자청(15g), 다진마늘(5g), 청고추(15g), 홍고추(20g)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +393,6 @@
   </si>
   <si>
     <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00489_1.png</t>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_2.ng, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>치즈리조또</t>
@@ -632,10 +616,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_06.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>깐풍파스타</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,9 +722,6 @@
     <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00231_1.png</t>
   </si>
   <si>
-    <t>1. 찬물에 다시마를 넣고 끓여 건져내고 불을 끈 후 가다랑어포를 넣어 우려 육수를 만든다.|2. 두부, 가지는 깍둑 썰고, 표고버섯, 양파는 채 썰고, 달걀은 곱게 푼다.|3. 두부, 가지는 물기를 제거한 뒤 후춧가루로 밑간하고 녹말가루를 얇게 입혀 식용유를 두른 팬에서 구워 건진다.|4. 육수(1컵)에 청주, 설탕, 간장을 넣고 표고버섯, 양파를 넣고 조려 덮밥 소스를 만든다.|5. 달걀물을 붓고 익을 때까지 저은 후 녹말물을 넣어 되직하게 끓인다.6. 밥을 그릇에 담고 덮밥소스를 곁들인 후 두부, 가지, 가다랑어포를 얹어 마무리한다.</t>
-  </si>
-  <si>
     <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00231_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00231_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00231_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00231_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00231_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00231_6.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -759,327 +736,353 @@
     <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00516_1.png</t>
   </si>
   <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그린매쉬드포테이토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우두부계란찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부추콩가루찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방울토마토소박이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순두부오이무침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새우북엇국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표고버섯청경채국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치커리샐러드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리샐러드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오렌지당근주스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검은콩곤약국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈돈가스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찬밥김치달걀찜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해산물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함초냉이국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호박고구마스프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛간장삼치구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>된장삼치구이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306051053_1678090253179.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 삼치는 세척 후 전분가루로 옷을 입혀준다.|2. 된장과 청주를 섞어 구이소스를 만들어 삼치를 재운다.|3. 청고추와 홍고추는 곱게 다지고 치커리는 적당하게 잘라서 물에 담가준다.|4. 유자청, 다진마늘, 다진 청고추와 홍고추를 섞어 곁들임소스를 만든다.|5. 재워두었던 삼치를 굽는다.|6. 접시에 구운 삼치와 치커리를 올리고 치커리를 올리고 곁들임소스를 뿌려 완성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미역전복죽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전복 100g, 찹쌀 70g, 당근 25g, 다시마 사방 10x10cm, 건조 자른미역 3g, 참기름 15g, 검정깨 5g</t>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00431_1.png</t>
+  </si>
+  <si>
+    <t>1. 전복은 내장과 분리해 손질한다.|2. 내장은 칼로 다진다.|3. 당근과 전복살은 송송 잘라준다.|4. 전복 껍질과 다시마를 넣어 물 300g에 국물을 만들어준다.|5. 만들어진 국물에 미역을 넣고 끓여준다.| 6. 다진 내장과 불린 찹쌀을 참기름에 볶다가 끓인 미역국을 넣고 더 끓여 죽을 만든다. 다진 당근, 흑임자로 마무리 완성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로콜리스프</t>
+  </si>
+  <si>
+    <t>닭육수 200g, 양송이버섯 30g, 브로콜리 50g, 생크림 50g, 함초소금 1g, 바케트 20g, 청양고추 1개, 버터 15g, 방울토마토 20g, 설탕 15g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 닭육수에 브로콜리, 양송이를 넣고 끓인다.|2. 생크림을 넣고 갈아준 후 함초소금으로 간을 만들어준다|3. 다진 청양고추와 버터를 섞어 청양고추버터를 만들어준다.|4. 토마토를 믹서에 갈아 설탕과 팬에 섞어서 토마토 시럽을 만들어준다.|5. 바게트에 토마토시럽을 발라주고 청양고추 버터를 발라 140도 오븐에서 2분간 구워준다.|6. 그릇에 브로콜리스프를 담아주고 청양고추버터 바게트를 곁들여 완성한다.</t>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00347_1.png</t>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연어초밥</t>
+  </si>
+  <si>
+    <t>연어(100g), 쌀(150g), 당근(20g), 표고버섯(3장), 겨자가루(10g), 새싹(10g), 파슬리(5g), 식초(10g), 설탕(20g), 소금(0.2g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00573_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 연어는 끝을 뾰족하게 살려 슬라이스한다.|2. 쌀은 깨끗이 씻어 30분 이상 불려 밥을 지어 식힌다.|3. 냄비에 식초, 설탕, 소금 약간과 물을 동량으로 넣고 끓인 뒤 식혀 촛물을 만들어 밥에 넣고 골고루 섞는다.|4. 당근과 표고버섯은 입자있게 다져 살짝 볶아 식혀놓은 초밥에 넣고 잘 섞어준다.|5. 와사비 가루에 30℃정도의 물을 넣고 섞은 뒤 발효 시키고, 초밥 형태를 만들어 그 위에 와사비를 바르고 연어를 올린 후 접시에 담는다.|6. 새싹과 파슬리는 찬물에 담았다 건져 물기를 빼고, 연어 초밥 옆에 올린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나물부추볶음</t>
+  </si>
+  <si>
+    <t>콩나물(150g), 부추(50g), 양파(30g), 당근(20g), 파(10g), 감자(50g), 소금(0.3g), 식용유(20g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00579_1.png</t>
+  </si>
+  <si>
+    <t>1. 감자는 채를 썰어 물에 담궈 전분을 제거하고, 양파와 당근 파는 채를 썬다.|2. 콩나물은 머리와 꼬리를 손질한다.|3. 물이 끓으면 손질한 콩나물을 넣는다.|4. 콩나물이 익으면 체에 건져 찬물에 헹군다.|5. 부추는 약 6cm 길이로 썬다.|6. 팬에 기름을 두르고 콩나물을 넣고살짝 볶다가 썰어 놓은 야채를 넣고 볶으면서 소금 간을 하고 마지막에 부추를 넣고 마무리 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈비찜</t>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00248_1.png</t>
+  </si>
+  <si>
+    <t>다진 돼지고기(50g), 다진 쇠고기(30g), 가지(10g), 가래떡(60g), 유자청(15g), 간장(5g), 연근(4g), 다진 파(5g), 다진 마늘(5g), 다진 양파(10g), 소금(1g), 후춧가루(1g), 참기름(3g)</t>
+  </si>
+  <si>
+    <t>1. 돼지고기와 쇠고기는 고기 밑간을 넣고 반죽을 만든다.|2. 가지를 길고 얇게 썬다.|3. 깨끗이 씻은 떡을 가지로 돌돌 말고 그 위에 고기를 말아 떡갈비를 만들고 팬에서 겉면이 노릇해질 때까지만 익힌 뒤 김 오른 찜기에 넣어 10분~15분 정도 찐다.|4. 유자청과 간장을 섞고 팬에서 농도를 맞춰주며 살짝 졸여 유자소스를 만든다.|5. 연근은 모양대로 얇게 썰어 기름에 튀겨 연근칩을 만든다.|6. 떡갈비에 유자소스를 바르고 연근칩을 올려 마무리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장어찜</t>
+  </si>
+  <si>
+    <t>장어 250g, 우유 100g, 후추 1g,  우엉 25g, 인삼 20g, 미나리 20g, 팽이 15g, 양파 40g,  청고추 17g, 홍고추 15g, 맛간장 7g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00366_1.png</t>
+  </si>
+  <si>
+    <t>1. 장어 살 쪽에 칼집을 내어 우유와 후추로 마리네이드 해서 비린내를 제거한다.|2. 우엉, 인삼, 홍고추는 채 썰어 냉수에 담가둔다.|3. 미나리, 팽이는 먹기 좋게 썰어준다.|4. 양파, 청고추는 가늘게 채 썰어준다.|5. 장어는 찜기에 쪄준다.|6. 모든 채소를 한데 섞어 샐러드소스로 버무려샐러드를 만들어주고 장어와 함께 완성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">키위샐러드 </t>
+  </si>
+  <si>
+    <t>키위 60g(1개), 방울토마토 100g(10개), 양상추 70g(2장), 아몬드 10g(6알), 땅콩 10g(10알), 무순 약간, 사과식초 30g(2큰술), 설탕 15g(1큰술), 물 50ml(1/4컵), 다진 마늘 5g(1작은술)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00077_1.png</t>
+  </si>
+  <si>
+    <t>1. 그릇에 다진 마늘, 사과식초, 설탕, 물을 섞어 설탕이 녹을 때까지 저어 마늘 드레싱을 만든다.|2. 양상추는 찬물에 담갔다가 물기를 빼서 한입 크기로 찢고, 무순은 손질하여 물기를 빼고, 방울토마토는 꼭지를 떼고 반으로 자른다.|3. 키위는 껍질을 벗기고 둥근 모양으로 썰고 그릇에 양상추, 방울토마토, 키위, 아몬드, 땅콩을 넣고 마늘 드레싱에 버무려 접시에 담아 무순을 곁들인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단호박배추된장국</t>
+  </si>
+  <si>
+    <t>단호박(20g), 배추(50g), 새송이버섯(10g), 홍고추(1g), 대파(50g), 양파(50g), 물(300g),  된장(1g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014618_1678682778547.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 냄비에 육수 재료를 넣고 10분간 끓여 체로 건진다.|2. 단호박은 전자레인지에 2분간 넣고 익힌 후 껍질을 벗겨 으깬다.|3. 배추와 새송이버섯을 먹기 좋은 크기로 썰고 홍고추는 어슷 썬다.|4. 육수에 단호박을 넣어 잘 풀어준다.|5. 육수에 된장을 풀어 끓인다.|6. 배추와 새송이버섯을 넣어 익힌 후 홍고추를 넣고 마무리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩국수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메밀면 80g, 백일송이 25g, 마늘기름 15g, 통깨 2g, 볶은소금 1g, 애호박 50g, 양파 50g, 청고추 15g, 홍고추 15g, 두유 200g, 두부 60g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 두유와 두부를 믹서에 생수 100g을 넣고 갈아준다.|2. 애호박은 돌려깎기 해서 채 썰어주고 양파,홍고추, 청고추도 가늘게 채 썰어준다.|3. 백일송이는 가늘게 찢어 볶아준다.|4. 애호박, 당근, 청고추, 홍고추를 각각 볶아준다.|5. 메밀면을 삶아서 준비한다.|6. 볼에 메밀면을 담고 고명을 올려준 후 믹서에 갈은 두부두유를 뿌려 완성한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가지연어구이</t>
+  </si>
+  <si>
+    <t>가지(40g), 토마토(20g), 연어(200g), 파슬리가루(1g), 올리브유(5g), 마늘(10g), 사과(20g), 유자청(30g), 레몬즙(5g)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00233_1.png</t>
+  </si>
+  <si>
+    <t>1. 가지는 어슷 썰고, 토마토는 반 자른다.|2. 연어는 파슬리와 올리브유에 재운다.|3. 마늘은 노릇하게 굽는다.|4. 재운 연어와 가지, 토마토는 180℃로 예열한 오븐에 10분 정도 굽는다.|5. 사과는 잘게 다져 유자청과 레몬즙을 넣고 살짝 볶아 소스를 만든다.|6. 연어, 가지, 토마토, 구운 마늘을 담고 소스를 얹어 마무리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031844_1678256324276.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031856_1678256336951.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031915_1678256355410.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031929_1678256369102.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031942_1678256382651.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308032001_1678256401133.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050908_1678090148319.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050923_1678090163609.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050941_1678090181947.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050959_1678090199008.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306051031_1678090231590.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306051053_1678090253179.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리(채소, 고기, 해산물, 샐러드, 국, 밥, 면, 찌개, 기타)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00440_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308032001_1678256401133.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00489_6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014423_1678682663468.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014442_1678682682771.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014508_1678682708772.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014540_1678682740233.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014557_1678682757303.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014618_1678682778547.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_06.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00137_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00137_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00137_3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00342_1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 찬물에 다시마를 넣고 끓여 건져내고 불을 끈 후 가다랑어포를 넣어 우려 육수를 만든다.|2. 두부, 가지는 깍둑 썰고, 표고버섯, 양파는 채 썰고, 달걀은 곱게 푼다.|3. 두부, 가지는 물기를 제거한 뒤 후춧가루로 밑간하고 녹말가루를 얇게 입혀 식용유를 두른 팬에서 구워 건진다.|4. 육수(1컵)에 청주, 설탕, 간장을 넣고 표고버섯, 양파를 넣고 조려 덮밥 소스를 만든다.|5. 달걀물을 붓고 익을 때까지 저은 후 녹말물을 넣어 되직하게 끓인다. |6. 밥을 그릇에 담고 덮밥소스를 곁들인 후 두부, 가지, 가다랑어포를 얹어 마무리한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 밀가루에 소금과 녹말가루를 넣고 반죽을 한다.|2. 냄비에 건새우와 머리와 내장을 제거한 멸치, 다시마, 무, 마늘, 양파를 넣고 약30분 정도 끓여 체에 걸러 육수를 만들어 놓는다.|3. 호박은 반달모양으로 썰고, 느타리는 손으로 찢고, 양파와 대파는 길게 썰어 준비한다. 4. 새우는 요지를 이용하여 새우등의 내장을 제거하고, 홍합은 족사를 때어 내고 솔을 이용하여 껍질을 깨끗이 씻어낸 후 흐르는 물에 깨끗하게 행구고, 미더덕은 깨끗이 씻어 놓는다.|5. 반죽을 해 놓은 밀가루에 덧 밀가루를 뿌려가며 얇게 밀어준다.|6. 얇게 밀어 놓은 밀가루를 칼로 썰어 덧밀가루를 털어내고, 만들어 놓은 육수에 칼국수를 넣고, 준비한 채소(③)와 해물(④)을 넣고 간장으로 간을 맞추어 완성한다.</t>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00516_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그린매쉬드포테이토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우두부계란찜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부추콩가루찜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방울토마토소박이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순두부오이무침</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우북엇국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표고버섯청경채국</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치커리샐러드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로콜리샐러드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오렌지당근주스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검은콩곤약국수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>된장찌개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부대찌개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치즈돈가스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찬밥김치달걀찜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샐러드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해산물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함초냉이국수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>호박고구마스프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛간장삼치구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>된장삼치구이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306051053_1678090253179.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 삼치는 세척 후 전분가루로 옷을 입혀준다.|2. 된장과 청주를 섞어 구이소스를 만들어 삼치를 재운다.|3. 청고추와 홍고추는 곱게 다지고 치커리는 적당하게 잘라서 물에 담가준다.|4. 유자청, 다진마늘, 다진 청고추와 홍고추를 섞어 곁들임소스를 만든다.|5. 재워두었던 삼치를 굽는다.|6. 접시에 구운 삼치와 치커리를 올리고 치커리를 올리고 곁들임소스를 뿌려 완성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미역전복죽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전복 100g, 찹쌀 70g, 당근 25g, 다시마 사방 10x10cm, 건조 자른미역 3g, 참기름 15g, 검정깨 5g</t>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00431_1.png</t>
-  </si>
-  <si>
-    <t>1. 전복은 내장과 분리해 손질한다.|2. 내장은 칼로 다진다.|3. 당근과 전복살은 송송 잘라준다.|4. 전복 껍질과 다시마를 넣어 물 300g에 국물을 만들어준다.|5. 만들어진 국물에 미역을 넣고 끓여준다.| 6. 다진 내장과 불린 찹쌀을 참기름에 볶다가 끓인 미역국을 넣고 더 끓여 죽을 만든다. 다진 당근, 흑임자로 마무리 완성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00431_06.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브로콜리스프</t>
-  </si>
-  <si>
-    <t>닭육수 200g, 양송이버섯 30g, 브로콜리 50g, 생크림 50g, 함초소금 1g, 바케트 20g, 청양고추 1개, 버터 15g, 방울토마토 20g, 설탕 15g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 닭육수에 브로콜리, 양송이를 넣고 끓인다.|2. 생크림을 넣고 갈아준 후 함초소금으로 간을 만들어준다|3. 다진 청양고추와 버터를 섞어 청양고추버터를 만들어준다.|4. 토마토를 믹서에 갈아 설탕과 팬에 섞어서 토마토 시럽을 만들어준다.|5. 바게트에 토마토시럽을 발라주고 청양고추 버터를 발라 140도 오븐에서 2분간 구워준다.|6. 그릇에 브로콜리스프를 담아주고 청양고추버터 바게트를 곁들여 완성한다.</t>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00347_1.png</t>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00347_06.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연어초밥</t>
-  </si>
-  <si>
-    <t>연어(100g), 쌀(150g), 당근(20g), 표고버섯(3장), 겨자가루(10g), 새싹(10g), 파슬리(5g), 식초(10g), 설탕(20g), 소금(0.2g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00573_1.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 연어는 끝을 뾰족하게 살려 슬라이스한다.|2. 쌀은 깨끗이 씻어 30분 이상 불려 밥을 지어 식힌다.|3. 냄비에 식초, 설탕, 소금 약간과 물을 동량으로 넣고 끓인 뒤 식혀 촛물을 만들어 밥에 넣고 골고루 섞는다.|4. 당근과 표고버섯은 입자있게 다져 살짝 볶아 식혀놓은 초밥에 넣고 잘 섞어준다.|5. 와사비 가루에 30℃정도의 물을 넣고 섞은 뒤 발효 시키고, 초밥 형태를 만들어 그 위에 와사비를 바르고 연어를 올린 후 접시에 담는다.|6. 새싹과 파슬리는 찬물에 담았다 건져 물기를 빼고, 연어 초밥 옆에 올린다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00573_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩나물부추볶음</t>
-  </si>
-  <si>
-    <t>콩나물(150g), 부추(50g), 양파(30g), 당근(20g), 파(10g), 감자(50g), 소금(0.3g), 식용유(20g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00579_1.png</t>
-  </si>
-  <si>
-    <t>1. 감자는 채를 썰어 물에 담궈 전분을 제거하고, 양파와 당근 파는 채를 썬다.|2. 콩나물은 머리와 꼬리를 손질한다.|3. 물이 끓으면 손질한 콩나물을 넣는다.|4. 콩나물이 익으면 체에 건져 찬물에 헹군다.|5. 부추는 약 6cm 길이로 썬다.|6. 팬에 기름을 두르고 콩나물을 넣고살짝 볶다가 썰어 놓은 야채를 넣고 볶으면서 소금 간을 하고 마지막에 부추를 넣고 마무리 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00579_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡갈비찜</t>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00248_1.png</t>
-  </si>
-  <si>
-    <t>다진 돼지고기(50g), 다진 쇠고기(30g), 가지(10g), 가래떡(60g), 유자청(15g), 간장(5g), 연근(4g), 다진 파(5g), 다진 마늘(5g), 다진 양파(10g), 소금(1g), 후춧가루(1g), 참기름(3g)</t>
-  </si>
-  <si>
-    <t>1. 돼지고기와 쇠고기는 고기 밑간을 넣고 반죽을 만든다.|2. 가지를 길고 얇게 썬다.|3. 깨끗이 씻은 떡을 가지로 돌돌 말고 그 위에 고기를 말아 떡갈비를 만들고 팬에서 겉면이 노릇해질 때까지만 익힌 뒤 김 오른 찜기에 넣어 10분~15분 정도 찐다.|4. 유자청과 간장을 섞고 팬에서 농도를 맞춰주며 살짝 졸여 유자소스를 만든다.|5. 연근은 모양대로 얇게 썰어 기름에 튀겨 연근칩을 만든다.|6. 떡갈비에 유자소스를 바르고 연근칩을 올려 마무리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00248_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장어찜</t>
-  </si>
-  <si>
-    <t>장어 250g, 우유 100g, 후추 1g,  우엉 25g, 인삼 20g, 미나리 20g, 팽이 15g, 양파 40g,  청고추 17g, 홍고추 15g, 맛간장 7g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00366_1.png</t>
-  </si>
-  <si>
-    <t>1. 장어 살 쪽에 칼집을 내어 우유와 후추로 마리네이드 해서 비린내를 제거한다.|2. 우엉, 인삼, 홍고추는 채 썰어 냉수에 담가둔다.|3. 미나리, 팽이는 먹기 좋게 썰어준다.|4. 양파, 청고추는 가늘게 채 썰어준다.|5. 장어는 찜기에 쪄준다.|6. 모든 채소를 한데 섞어 샐러드소스로 버무려샐러드를 만들어주고 장어와 함께 완성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00366_06.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">키위샐러드 </t>
-  </si>
-  <si>
-    <t>키위 60g(1개), 방울토마토 100g(10개), 양상추 70g(2장), 아몬드 10g(6알), 땅콩 10g(10알), 무순 약간, 사과식초 30g(2큰술), 설탕 15g(1큰술), 물 50ml(1/4컵), 다진 마늘 5g(1작은술)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00077_1.png</t>
-  </si>
-  <si>
-    <t>1. 그릇에 다진 마늘, 사과식초, 설탕, 물을 섞어 설탕이 녹을 때까지 저어 마늘 드레싱을 만든다.|2. 양상추는 찬물에 담갔다가 물기를 빼서 한입 크기로 찢고, 무순은 손질하여 물기를 빼고, 방울토마토는 꼭지를 떼고 반으로 자른다.|3. 키위는 껍질을 벗기고 둥근 모양으로 썰고 그릇에 양상추, 방울토마토, 키위, 아몬드, 땅콩을 넣고 마늘 드레싱에 버무려 접시에 담아 무순을 곁들인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단호박배추된장국</t>
-  </si>
-  <si>
-    <t>단호박(20g), 배추(50g), 새송이버섯(10g), 홍고추(1g), 대파(50g), 양파(50g), 물(300g),  된장(1g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014618_1678682778547.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 냄비에 육수 재료를 넣고 10분간 끓여 체로 건진다.|2. 단호박은 전자레인지에 2분간 넣고 익힌 후 껍질을 벗겨 으깬다.|3. 배추와 새송이버섯을 먹기 좋은 크기로 썰고 홍고추는 어슷 썬다.|4. 육수에 단호박을 넣어 잘 풀어준다.|5. 육수에 된장을 풀어 끓인다.|6. 배추와 새송이버섯을 넣어 익힌 후 홍고추를 넣고 마무리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014423_1678682663468.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014423_1678682663468.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014540_1678682740233.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230313/20230313014618_1678682778547.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콩국수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메밀면 80g, 백일송이 25g, 마늘기름 15g, 통깨 2g, 볶은소금 1g, 애호박 50g, 양파 50g, 청고추 15g, 홍고추 15g, 두유 200g, 두부 60g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00342_1.png</t>
-  </si>
-  <si>
-    <t>1. 두유와 두부를 믹서에 생수 100g을 넣고 갈아준다.|2. 애호박은 돌려깎기 해서 채 썰어주고 양파,홍고추, 청고추도 가늘게 채 썰어준다.|3. 백일송이는 가늘게 찢어 볶아준다.|4. 애호박, 당근, 청고추, 홍고추를 각각 볶아준다.|5. 메밀면을 삶아서 준비한다.|6. 볼에 메밀면을 담고 고명을 올려준 후 믹서에 갈은 두부두유를 뿌려 완성한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_01.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_02.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_03.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_04.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_05.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00342_06.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가지연어구이</t>
-  </si>
-  <si>
-    <t>가지(40g), 토마토(20g), 연어(200g), 파슬리가루(1g), 올리브유(5g), 마늘(10g), 사과(20g), 유자청(30g), 레몬즙(5g)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/10_00233_1.png</t>
-  </si>
-  <si>
-    <t>1. 가지는 어슷 썰고, 토마토는 반 자른다.|2. 연어는 파슬리와 올리브유에 재운다.|3. 마늘은 노릇하게 굽는다.|4. 재운 연어와 가지, 토마토는 180℃로 예열한 오븐에 10분 정도 굽는다.|5. 사과는 잘게 다져 유자청과 레몬즙을 넣고 살짝 볶아 소스를 만든다.|6. 연어, 가지, 토마토, 구운 마늘을 담고 소스를 얹어 마무리한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_1.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_2.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_3.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_4.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00233_6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031815_1678256295249.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031844_1678256324276.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031856_1678256336951.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031915_1678256355410.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031929_1678256369102.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308031942_1678256382651.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230308/20230308032001_1678256401133.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050908_1678090148319.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050923_1678090163609.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050941_1678090181947.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306050959_1678090199008.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306051031_1678090231590.jpg, http://www.foodsafetykorea.go.kr/uploadimg/20230306/20230306051053_1678090253179.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리(채소, 고기, 해산물, 샐러드, 국, 밥, 면, 찌개, 기타)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찌개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_1.png,http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_5.png, http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_4.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1087,7 +1090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1481,21 +1484,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A3783A-35F9-4929-89BF-440DB309DD2B}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.125" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.1640625" customWidth="1"/>
     <col min="3" max="3" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="63.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.125" customWidth="1"/>
-    <col min="6" max="6" width="187.125" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.1640625" customWidth="1"/>
+    <col min="6" max="6" width="187.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1503,7 +1506,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -1527,131 +1530,122 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1659,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1682,68 +1676,68 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
         <v>35</v>
       </c>
       <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1751,45 +1745,45 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1797,22 +1791,22 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -1820,68 +1814,68 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>52</v>
       </c>
@@ -1889,801 +1883,846 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>264</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G22">
+        <v>190</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="F23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>121</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
         <v>199</v>
       </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="D25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E25" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>200</v>
       </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>126</v>
+      </c>
+      <c r="B30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30">
+        <v>195</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>199</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>200</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" t="s">
+        <v>165</v>
+      </c>
+      <c r="G38">
+        <v>185</v>
+      </c>
+      <c r="H38">
+        <v>90</v>
+      </c>
+      <c r="I38">
+        <v>4.5</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D39" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>200</v>
+      </c>
+      <c r="D40" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" t="s">
+        <v>173</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" t="s">
+        <v>267</v>
+      </c>
+      <c r="F41" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+      <c r="E42" t="s">
+        <v>210</v>
+      </c>
+      <c r="F42" t="s">
+        <v>211</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" t="s">
+        <v>216</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44">
+        <v>185</v>
+      </c>
+      <c r="H44">
+        <v>40</v>
+      </c>
+      <c r="I44">
+        <v>4</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>222</v>
+      </c>
+      <c r="B45" t="s">
+        <v>223</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" t="s">
+        <v>227</v>
+      </c>
+      <c r="B46" t="s">
+        <v>229</v>
+      </c>
+      <c r="C46" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" t="s">
+        <v>231</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>199</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" t="s">
+        <v>236</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>237</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>178</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>246</v>
+      </c>
+      <c r="B50" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" t="s">
-        <v>205</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" t="s">
-        <v>185</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" t="s">
-        <v>205</v>
-      </c>
-      <c r="D28" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E50" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" t="s">
+        <v>249</v>
+      </c>
+      <c r="G50">
+        <v>200</v>
+      </c>
+      <c r="H50">
         <v>100</v>
       </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>268</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C31" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>210</v>
-      </c>
-      <c r="B32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E33" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B35" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E35" t="s">
-        <v>151</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C36" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D37" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>166</v>
-      </c>
-      <c r="B38" t="s">
-        <v>167</v>
-      </c>
-      <c r="C38" t="s">
-        <v>205</v>
-      </c>
-      <c r="D38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" t="s">
-        <v>170</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" t="s">
-        <v>187</v>
-      </c>
-      <c r="D39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E39" t="s">
-        <v>173</v>
-      </c>
-      <c r="F39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B40" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" t="s">
-        <v>218</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B43" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" t="s">
-        <v>187</v>
-      </c>
-      <c r="D43" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" t="s">
-        <v>221</v>
-      </c>
-      <c r="F43" t="s">
-        <v>223</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" t="s">
-        <v>225</v>
-      </c>
-      <c r="C44" t="s">
-        <v>206</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" t="s">
-        <v>228</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>229</v>
-      </c>
-      <c r="B45" t="s">
-        <v>230</v>
-      </c>
-      <c r="C45" t="s">
-        <v>203</v>
-      </c>
-      <c r="D45" t="s">
-        <v>231</v>
-      </c>
-      <c r="E45" t="s">
-        <v>232</v>
-      </c>
-      <c r="F45" t="s">
-        <v>233</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>234</v>
-      </c>
-      <c r="B46" t="s">
-        <v>236</v>
-      </c>
-      <c r="C46" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" t="s">
-        <v>235</v>
-      </c>
-      <c r="E46" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" t="s">
-        <v>238</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>239</v>
-      </c>
-      <c r="B47" t="s">
-        <v>240</v>
-      </c>
-      <c r="C47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" t="s">
-        <v>241</v>
-      </c>
-      <c r="E47" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" t="s">
-        <v>243</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>244</v>
-      </c>
-      <c r="B48" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" t="s">
-        <v>204</v>
-      </c>
-      <c r="D48" t="s">
-        <v>246</v>
-      </c>
-      <c r="E48" t="s">
-        <v>247</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>249</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
         <v>250</v>
       </c>
-      <c r="C49" t="s">
-        <v>185</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="B51" t="s">
         <v>251</v>
       </c>
-      <c r="E49" t="s">
+      <c r="C51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
         <v>252</v>
       </c>
-      <c r="F49" t="s">
+      <c r="E51" t="s">
         <v>253</v>
       </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="F51" t="s">
         <v>254</v>
       </c>
-      <c r="B50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" t="s">
-        <v>256</v>
-      </c>
-      <c r="E50" t="s">
-        <v>257</v>
-      </c>
-      <c r="F50" t="s">
-        <v>258</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>259</v>
-      </c>
-      <c r="B51" t="s">
-        <v>260</v>
-      </c>
-      <c r="C51" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" t="s">
-        <v>261</v>
-      </c>
-      <c r="E51" t="s">
-        <v>262</v>
-      </c>
-      <c r="F51" t="s">
-        <v>263</v>
-      </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2751,7 @@
     <hyperlink ref="D17" r:id="rId21" xr:uid="{56B3EAA1-B683-4726-998C-1C40F6E9AB0F}"/>
     <hyperlink ref="F17" r:id="rId22" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00111_1.png, " xr:uid="{FEB5D321-D639-46CF-9674-813377BC4F49}"/>
     <hyperlink ref="F18" r:id="rId23" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00113_1.png, " xr:uid="{3479E85A-68A3-4EDE-9835-31397C9AB3D4}"/>
-    <hyperlink ref="F19" r:id="rId24" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_1.png, " xr:uid="{A0586205-DED5-409E-B920-36FC1BADDF7F}"/>
+    <hyperlink ref="F19" r:id="rId24" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_1.png,http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_5.png, ,http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00131_4.png" xr:uid="{A0586205-DED5-409E-B920-36FC1BADDF7F}"/>
     <hyperlink ref="D20" r:id="rId25" xr:uid="{B96AA749-E2B3-41A3-98D4-C3DFA94D7943}"/>
     <hyperlink ref="F21" r:id="rId26" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00138_1.png, " xr:uid="{119B09C8-D910-42E5-A32D-C4EBAE8EAB2F}"/>
     <hyperlink ref="D21" r:id="rId27" xr:uid="{974EE387-1F9B-4A02-B838-C949AE309469}"/>
@@ -2736,7 +2775,7 @@
     <hyperlink ref="F31" r:id="rId45" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00398_01.png, " xr:uid="{35673833-A8C2-4681-88D7-B3EE248267A6}"/>
     <hyperlink ref="F32" r:id="rId46" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00393_01.png" xr:uid="{86C6CA91-C120-4796-AD9D-8855732FA996}"/>
     <hyperlink ref="F33" r:id="rId47" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00397_01.png" xr:uid="{61B55743-DEF9-4569-AD0F-2602005E75B2}"/>
-    <hyperlink ref="F34" r:id="rId48" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_01.png" xr:uid="{617D4EDF-245B-4B98-80B8-C0FA410E7E04}"/>
+    <hyperlink ref="F34" r:id="rId48" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00340_01.png, " xr:uid="{617D4EDF-245B-4B98-80B8-C0FA410E7E04}"/>
     <hyperlink ref="F35" r:id="rId49" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00488_1.png" xr:uid="{6AF1908E-B532-4152-99B6-87F49B9984F8}"/>
     <hyperlink ref="D35" r:id="rId50" xr:uid="{EE4330F0-1F42-4DF1-BB9D-6888E4D226F9}"/>
     <hyperlink ref="D34" r:id="rId51" xr:uid="{39418A22-1330-485B-9165-358FE64A11D8}"/>
@@ -2749,6 +2788,7 @@
     <hyperlink ref="F48" r:id="rId58" display="http://www.foodsafetykorea.go.kr/uploadimg/cook/20_00077_1.png" xr:uid="{55243E77-DCA8-4EE5-B898-5CA15DE0E6CA}"/>
     <hyperlink ref="D49" r:id="rId59" xr:uid="{5CEDD937-B64A-4398-BC7E-0398043FD0C0}"/>
     <hyperlink ref="D22" r:id="rId60" xr:uid="{F65BA1D8-BEEB-42B5-9BBC-25154FC09593}"/>
+    <hyperlink ref="D50" r:id="rId61" xr:uid="{65C5F438-B531-4183-BFE2-32B4F322EC9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
